--- a/src/test/resources/data/out/sampleRESTAPI.xlsx
+++ b/src/test/resources/data/out/sampleRESTAPI.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>location</t>
   </si>
@@ -35,13 +35,20 @@
   </si>
   <si>
     <t>Result</t>
+  </si>
+  <si>
+    <t>SuccÃ¨s</t>
+  </si>
+  <si>
+    <t>Ãchec : /!\ Ouverture de la page the page GITHUBAPI. Cette erreur peut provenir d'un proxy qui ne rÃ©pond pas ou de sa mauvaise configuration /!\</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,6 +74,36 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="53"/>
     </font>
   </fonts>
   <fills count="4">
@@ -101,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -109,6 +146,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,9 +470,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -454,7 +497,9 @@
         <v>4</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="D2" s="4"/>
+      <c r="D2" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -465,7 +510,9 @@
         <v>4</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="4"/>
+      <c r="D3" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
